--- a/Data/Figure3.xlsx
+++ b/Data/Figure3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unican-my.sharepoint.com/personal/fergarciam_unican_es/Documents/0000-SUBSILIENCE-POSTDOC/1.MIS3-STATE-OF-ART/Supplementary-Information/SCRIPTS-SI5-SI6/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unican-my.sharepoint.com/personal/fergarciam_unican_es/Documents/0000-SUBSILIENCE-POSTDOC/1.MIS3-STATE-OF-ART/SUBMISSION/SUPLEMENTARY-INFORMATION/SCRIPTS/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{CD798D44-4E2C-4D74-840A-0D71898FDE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B45252EC-9C25-4EE7-94B4-22FCD96E4EDA}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{CD798D44-4E2C-4D74-840A-0D71898FDE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D8C5194-DD2E-4B79-903A-8536536E9F78}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{4D9C49A1-E997-4676-ACE0-C5F288727423}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4D9C49A1-E997-4676-ACE0-C5F288727423}"/>
   </bookViews>
   <sheets>
     <sheet name="Micro" sheetId="1" r:id="rId1"/>
@@ -632,18 +632,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -658,32 +652,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DC0A9B-07BD-4146-A204-47A1F062EFB6}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,1198 +997,1198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>13.203266787658801</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>38.294010889292196</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>39.382940108892925</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>0.90744101633393826</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <v>8.2123411978221412</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>13.53036250288617</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>35.465250519510505</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>41.422304317709539</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>0.18471484645578387</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>9.3973678134380059</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>12.551183905999643</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>39.095602634858466</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>38.027416770518073</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>0.64091151860423712</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>9.6848851700195837</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>8.4770114942528743</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>42.0617816091954</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>19.288793103448278</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>22.701149425287355</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>7.4712643678160919</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>9.0909090909090917</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>40.909090909090907</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>40.909090909090907</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>9.0909090909090917</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>13.513513513513514</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>35.810810810810814</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>39.864864864864863</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>5.4054054054054053</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>5.4054054054054053</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>16.071428571428573</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>35.714285714285715</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>33.928571428571431</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>3.5714285714285716</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>10.714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>4.5454545454545459</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>43.18181818181818</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>52.272727272727273</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>7.1428571428571432</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>48.80952380952381</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>41.666666666666664</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>2.3809523809523809</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>4.166666666666667</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>52.083333333333336</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>43.75</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>38.75</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>31.25</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="2">
         <v>20</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>5.2631578947368425</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>38.421052631578945</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>45.789473684210527</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>10.526315789473685</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>51.5625</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>26.5625</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>6.25</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2">
         <v>15.625</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>21.334310850439884</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="2">
         <v>25.879765395894427</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>46.041055718475072</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>3.8123167155425222</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <v>2.9325513196480939</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>18.247257769652652</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="2">
         <v>39.853747714808044</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>37.854204753199269</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>1.9195612431444242</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="2">
         <v>2.1252285191956126</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>16.90251572327044</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>44.261006289308177</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>36.79245283018868</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="2">
         <v>0.31446540880503143</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="2">
         <v>1.729559748427673</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>15.760869565217391</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>46.195652173913047</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>34.782608695652172</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>2.1739130434782608</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="2">
         <v>1.0869565217391304</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>19.594594594594593</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>33.108108108108105</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="2">
         <v>40.54054054054054</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>2.7027027027027026</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="2">
         <v>4.0540540540540544</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>14.655172413793103</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="2">
         <v>37.068965517241381</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="2">
         <v>41.379310344827587</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="2">
         <v>6.8965517241379306</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2">
         <v>16.666666666666668</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <v>40.909090909090907</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <v>38.636363636363633</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="2">
         <v>1.5151515151515151</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="2">
         <v>2.2727272727272729</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2">
         <v>17.12962962962963</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="2">
         <v>36.805555555555557</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="2">
         <v>42.361111111111114</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="2">
         <v>1.8518518518518519</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="2">
         <v>1.8518518518518519</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>16.666666666666668</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <v>28.888888888888889</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>46.666666666666664</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>2.2222222222222223</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="2">
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2">
         <v>5.6188925081433228</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="2">
         <v>64.332247557003257</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="2">
         <v>27.850162866449512</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="2">
         <v>0.9771986970684039</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="2">
         <v>1.221498371335505</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>8.8024564994882297</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="2">
         <v>52.610030706243606</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <v>32.753326509723642</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="2">
         <v>0.40941658137154557</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="2">
         <v>5.4247697031729789</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>7.9596412556053808</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="2">
         <v>55.044843049327355</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>31.95067264573991</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="2">
         <v>1.7937219730941705</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="2">
         <v>3.2511210762331837</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>16.555555555555557</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="2">
         <v>36.74074074074074</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="2">
         <v>38.111111111111114</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="2">
         <v>2.6666666666666665</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="2">
         <v>5.9259259259259256</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>16.969995081160846</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="2">
         <v>38.022626660108216</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="2">
         <v>37.875061485489425</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="2">
         <v>2.3610427939006393</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="2">
         <v>4.7712739793408758</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>10.909090909090908</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2">
         <v>40.454545454545453</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="2">
         <v>35</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>5.4545454545454541</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="2">
         <v>8.1818181818181817</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2">
         <v>9.640831758034027</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2">
         <v>43.100189035916827</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>30.245746691871457</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="2">
         <v>7.0573408947700065</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="2">
         <v>9.9558916194076872</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
         <v>45</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="2">
         <v>18.928571428571427</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>28.571428571428573</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="2">
         <v>7.5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2">
         <v>8.1911262798634805</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2">
         <v>53.583617747440272</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="2">
         <v>19.795221843003414</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="2">
         <v>13.651877133105803</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="2">
         <v>4.7781569965870307</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>3.0674846625766872</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="2">
         <v>57.668711656441715</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="2">
         <v>29.447852760736197</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="2">
         <v>0.61349693251533743</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="2">
         <v>9.2024539877300615</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>12.5</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2">
         <v>48.214285714285715</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="2">
         <v>39.285714285714285</v>
       </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>5</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="2">
         <v>85</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="2">
         <v>10</v>
       </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>5.3571428571428568</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="2">
         <v>83.928571428571431</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="2">
         <v>10.714285714285714</v>
       </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
         <v>50.553505535055351</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="2">
         <v>28.782287822878228</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="2">
         <v>4.1328413284132841</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="2">
         <v>16.531365313653136</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="2">
         <v>0.2857142857142857</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="2">
         <v>55.857142857142854</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="2">
         <v>17.285714285714285</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="2">
         <v>7.4285714285714288</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="2">
         <v>19.142857142857142</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="2">
         <v>1.4705882352941178</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="2">
         <v>45.955882352941174</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="2">
         <v>19.485294117647058</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="2">
         <v>11.764705882352942</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="2">
         <v>21.323529411764707</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="2">
         <v>1.2858979854264896</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="2">
         <v>49.507072438919849</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="2">
         <v>22.074582083154738</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="2">
         <v>16.116588084012001</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="2">
         <v>11.015859408486927</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <v>1.9094766619519095</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="2">
         <v>47.94908062234795</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="2">
         <v>21.145685997171146</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="2">
         <v>18.387553041018389</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="2">
         <v>10.608203677510609</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="2">
         <v>4.1134751773049647</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="2">
         <v>50.921985815602838</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="2">
         <v>18.01418439716312</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="2">
         <v>14.184397163120567</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="2">
         <v>12.76595744680851</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
         <v>10.948905109489051</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="2">
         <v>36.496350364963504</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="2">
         <v>28.467153284671532</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="2">
         <v>8.7591240875912408</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="2">
         <v>15.328467153284672</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="2">
         <v>2.4746906636670416</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="2">
         <v>44.544431946006746</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="2">
         <v>20.922384701912261</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="2">
         <v>12.598425196850394</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="2">
         <v>19.460067491563553</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="2">
         <v>4.4286979627989371</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="2">
         <v>49.955713020372009</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="2">
         <v>23.294951284322408</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <v>10.363153232949513</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="2">
         <v>11.957484499557131</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="2">
         <v>1.5957446808510638</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="2">
         <v>19.148936170212767</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="2">
         <v>76.063829787234042</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
         <v>3.1914893617021276</v>
       </c>
     </row>
@@ -2216,830 +2201,832 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B3485A-D189-492E-8EFF-C1F8F19C3339}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.90625" style="4"/>
+    <col min="5" max="5" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>2.6</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0.4</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <v>67.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>1.8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.6</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>75.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>1.4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.4</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>63.7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>1.8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.6</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>15</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>13.25</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>21.25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>13.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>11.25</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>18</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>5</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>12</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>20.5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>26</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>47</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>12.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>30</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>26</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>38.5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>20.5</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>7.5</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>61</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>22.5</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>25</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>15</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>8</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>47</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>28</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>5</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>25</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <v>15</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>15</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>12</v>
       </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>25</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>35</v>
       </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>15</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>49</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>10.5</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>15.5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <v>8</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>36.25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>40</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>12.5</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>6.6</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>50.6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3051,589 +3038,590 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="14.81640625" customWidth="1"/>
+    <col min="1" max="4" width="14.81640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>28.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>24.75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>5.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="7">
         <v>2.4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="7">
         <v>2.4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="7">
         <v>34.666666666666671</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{9535558F-B9AC-42F1-A9E1-6B484C262A52}"/>
